--- a/Gantt project planner - RIMS MCA Group 3 .xlsx
+++ b/Gantt project planner - RIMS MCA Group 3 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25518"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58DF2AD-B8B8-4646-82AF-D05A8FF59F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE54789B-65B1-47CB-A14A-A35D505605CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,8 +837,8 @@
   </sheetPr>
   <dimension ref="B1:BO14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1163,9 +1163,11 @@
       <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
       <c r="G7" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="44.25" customHeight="1">
@@ -1196,9 +1198,13 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="2:67" ht="38.25" customHeight="1">
       <c r="B10" s="11" t="s">
@@ -1224,9 +1230,13 @@
       <c r="D11" s="12">
         <v>5</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">
       <c r="B12" s="11" t="s">

--- a/Gantt project planner - RIMS MCA Group 3 .xlsx
+++ b/Gantt project planner - RIMS MCA Group 3 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25518"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE54789B-65B1-47CB-A14A-A35D505605CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C44AB8-4677-4013-86A9-6C085FD180CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <dimension ref="B1:BO14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
@@ -1216,9 +1216,13 @@
       <c r="D10" s="12">
         <v>4</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="2:67" ht="60" customHeight="1">
       <c r="B11" s="11" t="s">
@@ -1235,7 +1239,7 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="13">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1">

--- a/Gantt project planner - RIMS MCA Group 3 .xlsx
+++ b/Gantt project planner - RIMS MCA Group 3 .xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25518"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C44AB8-4677-4013-86A9-6C085FD180CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -411,41 +410,41 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="10">
@@ -830,24 +829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BO14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1">
@@ -860,23 +859,23 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="2:67" s="7" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:67" s="7" customFormat="1" ht="39.9" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -904,11 +903,11 @@
     </row>
     <row r="3" spans="2:67" ht="15.75" customHeight="1">
       <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="3">
         <v>1</v>
       </c>
@@ -1334,15 +1333,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B2:B3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D2:D3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F2:F3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G2:G3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B2:B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C2:C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D2:D3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E2:E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F2:F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G2:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
